--- a/src/test/resources/Excel/UsersCreationDetails.xlsx
+++ b/src/test/resources/Excel/UsersCreationDetails.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>Email</t>
   </si>
@@ -42,56 +42,62 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Arizona</t>
-  </si>
-  <si>
     <t>Newzland</t>
   </si>
   <si>
     <t>Examtaker</t>
   </si>
   <si>
-    <t>Dec27</t>
-  </si>
-  <si>
     <t>Controller</t>
   </si>
   <si>
     <t>proctor</t>
   </si>
   <si>
-    <t>AUG</t>
-  </si>
-  <si>
-    <t>dec27controller1@gmail.com</t>
-  </si>
-  <si>
-    <t>dec27proctor1@gmail.com</t>
-  </si>
-  <si>
-    <t>dec27examtaker1@gmail.com</t>
-  </si>
-  <si>
-    <t>December27</t>
-  </si>
-  <si>
     <t>JUL</t>
   </si>
   <si>
-    <t>december27controller01@gmail.com</t>
-  </si>
-  <si>
-    <t>december27proctor01@gmail.com</t>
-  </si>
-  <si>
-    <t>december27examtaker01@gmail.com</t>
+    <t>Dec28</t>
+  </si>
+  <si>
+    <t>december28controller01@gmail.com</t>
+  </si>
+  <si>
+    <t>december28proctor01@gmail.com</t>
+  </si>
+  <si>
+    <t>december28examtaker01@gmail.com</t>
+  </si>
+  <si>
+    <t>DEC</t>
+  </si>
+  <si>
+    <t>Location22</t>
+  </si>
+  <si>
+    <t>dec28controller06@gmail.com</t>
+  </si>
+  <si>
+    <t>dec28proctor06@gmail.com</t>
+  </si>
+  <si>
+    <t>dec28examtaker06@gmail.com</t>
+  </si>
+  <si>
+    <t>Controller5</t>
+  </si>
+  <si>
+    <t>proctor5</t>
+  </si>
+  <si>
+    <t>Examtaker5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +112,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF1E88E5"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -132,7 +144,6 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -140,6 +151,7 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -445,13 +457,14 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -481,60 +494,60 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>11</v>
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>6644</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>11</v>
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <v>9494</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
+      <c r="E3" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>11</v>
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>8897</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
+      <c r="E4" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="F4">
-        <v>2001</v>
+        <v>2023</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -553,7 +566,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,92 +577,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2">
+        <v>6644</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2">
+        <v>9894</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4599</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2008</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3">
-        <v>6644</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3">
-        <v>9894</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3">
-        <v>4599</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="6">
-        <v>2008</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>16</v>
       </c>
     </row>

--- a/src/test/resources/Excel/UsersCreationDetails.xlsx
+++ b/src/test/resources/Excel/UsersCreationDetails.xlsx
@@ -75,22 +75,22 @@
     <t>Location22</t>
   </si>
   <si>
-    <t>dec28controller06@gmail.com</t>
-  </si>
-  <si>
-    <t>dec28proctor06@gmail.com</t>
-  </si>
-  <si>
-    <t>dec28examtaker06@gmail.com</t>
-  </si>
-  <si>
-    <t>Controller5</t>
-  </si>
-  <si>
-    <t>proctor5</t>
-  </si>
-  <si>
-    <t>Examtaker5</t>
+    <t>Jan8</t>
+  </si>
+  <si>
+    <t>jan8controller4@yopmail.com</t>
+  </si>
+  <si>
+    <t>Controller4</t>
+  </si>
+  <si>
+    <t>jan8proctor2@yopmail.com</t>
+  </si>
+  <si>
+    <t>proctor2</t>
+  </si>
+  <si>
+    <t>jan8examtaker@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -457,7 +457,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,13 +495,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>13</v>
-      </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>6644</v>
@@ -509,10 +509,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
@@ -526,13 +526,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>8897</v>
@@ -552,8 +552,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
     <hyperlink ref="A4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/Excel/UsersCreationDetails.xlsx
+++ b/src/test/resources/Excel/UsersCreationDetails.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536"/>
+    <workbookView xWindow="96" yWindow="84" windowWidth="9540" windowHeight="4536" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="STAGE" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>Email</t>
   </si>
@@ -42,55 +42,58 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Newzland</t>
-  </si>
-  <si>
-    <t>Examtaker</t>
-  </si>
-  <si>
-    <t>Controller</t>
-  </si>
-  <si>
-    <t>proctor</t>
-  </si>
-  <si>
-    <t>JUL</t>
-  </si>
-  <si>
-    <t>Dec28</t>
-  </si>
-  <si>
-    <t>december28controller01@gmail.com</t>
-  </si>
-  <si>
-    <t>december28proctor01@gmail.com</t>
-  </si>
-  <si>
-    <t>december28examtaker01@gmail.com</t>
-  </si>
-  <si>
     <t>DEC</t>
   </si>
   <si>
-    <t>Location22</t>
-  </si>
-  <si>
-    <t>Jan8</t>
-  </si>
-  <si>
-    <t>jan8controller4@yopmail.com</t>
-  </si>
-  <si>
-    <t>Controller4</t>
-  </si>
-  <si>
-    <t>jan8proctor2@yopmail.com</t>
-  </si>
-  <si>
-    <t>proctor2</t>
-  </si>
-  <si>
-    <t>jan8examtaker@yopmail.com</t>
+    <t>Jan9</t>
+  </si>
+  <si>
+    <t>Hitechcity</t>
+  </si>
+  <si>
+    <t>jan9controller02@yopmail.com</t>
+  </si>
+  <si>
+    <t>jan9proctor02@yopmail.com</t>
+  </si>
+  <si>
+    <t>jan9examtaker02@yopmail.com</t>
+  </si>
+  <si>
+    <t>Controller02</t>
+  </si>
+  <si>
+    <t>proctor02</t>
+  </si>
+  <si>
+    <t>Examtaker02</t>
+  </si>
+  <si>
+    <t>Prod Location</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>january11</t>
+  </si>
+  <si>
+    <t>jan11controller07@gmail.com</t>
+  </si>
+  <si>
+    <t>jan11proctor07@gmail.com</t>
+  </si>
+  <si>
+    <t>jan11examtaker07@gmail.com</t>
+  </si>
+  <si>
+    <t>controller07</t>
+  </si>
+  <si>
+    <t>proctor07</t>
+  </si>
+  <si>
+    <t>examtaker07</t>
   </si>
 </sst>
 </file>
@@ -114,8 +117,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF1E88E5"/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -141,14 +144,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -456,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,13 +495,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>6644</v>
@@ -509,42 +509,42 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>9494</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>18</v>
+      <c r="E3" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>8897</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>18</v>
+      <c r="E4" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="F4">
         <v>2023</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>28</v>
@@ -553,8 +553,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -565,15 +565,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" customWidth="1"/>
+    <col min="1" max="1" width="33.21875" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" customWidth="1"/>
     <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -604,13 +605,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2">
         <v>6644</v>
@@ -620,50 +621,50 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2">
         <v>9894</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>8</v>
+      <c r="E3" t="s">
+        <v>17</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2">
         <v>4599</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="5">
-        <v>2008</v>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2005</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H4" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
